--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Plxna2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.6220282669866</v>
+        <v>59.7154715</v>
       </c>
       <c r="H2">
-        <v>59.6220282669866</v>
+        <v>119.430943</v>
       </c>
       <c r="I2">
-        <v>0.5115938063240072</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J2">
-        <v>0.5115938063240072</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N2">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O2">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P2">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q2">
-        <v>1864.510868505272</v>
+        <v>1870.698961957884</v>
       </c>
       <c r="R2">
-        <v>1864.510868505272</v>
+        <v>7482.795847831535</v>
       </c>
       <c r="S2">
-        <v>0.2137272345241506</v>
+        <v>0.1703996508977614</v>
       </c>
       <c r="T2">
-        <v>0.2137272345241506</v>
+        <v>0.1259508109734428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.6220282669866</v>
+        <v>59.7154715</v>
       </c>
       <c r="H3">
-        <v>59.6220282669866</v>
+        <v>119.430943</v>
       </c>
       <c r="I3">
-        <v>0.5115938063240072</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J3">
-        <v>0.5115938063240072</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N3">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O3">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P3">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q3">
-        <v>80.80309076386034</v>
+        <v>87.481732576184</v>
       </c>
       <c r="R3">
-        <v>80.80309076386034</v>
+        <v>524.890395457104</v>
       </c>
       <c r="S3">
-        <v>0.009262386946453443</v>
+        <v>0.007968602642143705</v>
       </c>
       <c r="T3">
-        <v>0.009262386946453443</v>
+        <v>0.008834982581965229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.6220282669866</v>
+        <v>59.7154715</v>
       </c>
       <c r="H4">
-        <v>59.6220282669866</v>
+        <v>119.430943</v>
       </c>
       <c r="I4">
-        <v>0.5115938063240072</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J4">
-        <v>0.5115938063240072</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N4">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O4">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P4">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q4">
-        <v>43.37401589459494</v>
+        <v>69.0061837023845</v>
       </c>
       <c r="R4">
-        <v>43.37401589459494</v>
+        <v>414.037102214307</v>
       </c>
       <c r="S4">
-        <v>0.004971925143450626</v>
+        <v>0.006285687783974855</v>
       </c>
       <c r="T4">
-        <v>0.004971925143450626</v>
+        <v>0.006969094153771204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.6220282669866</v>
+        <v>59.7154715</v>
       </c>
       <c r="H5">
-        <v>59.6220282669866</v>
+        <v>119.430943</v>
       </c>
       <c r="I5">
-        <v>0.5115938063240072</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J5">
-        <v>0.5115938063240072</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N5">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O5">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P5">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q5">
-        <v>29.01337238729767</v>
+        <v>33.11720523604166</v>
       </c>
       <c r="R5">
-        <v>29.01337238729767</v>
+        <v>198.70323141625</v>
       </c>
       <c r="S5">
-        <v>0.003325777258422535</v>
+        <v>0.003016605197142385</v>
       </c>
       <c r="T5">
-        <v>0.003325777258422535</v>
+        <v>0.003344583181054307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.6220282669866</v>
+        <v>59.7154715</v>
       </c>
       <c r="H6">
-        <v>59.6220282669866</v>
+        <v>119.430943</v>
       </c>
       <c r="I6">
-        <v>0.5115938063240072</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J6">
-        <v>0.5115938063240072</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N6">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O6">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P6">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q6">
-        <v>1557.599711164369</v>
+        <v>1652.574875801411</v>
       </c>
       <c r="R6">
-        <v>1557.599711164369</v>
+        <v>9915.449254808464</v>
       </c>
       <c r="S6">
-        <v>0.1785462795556962</v>
+        <v>0.1505309981164739</v>
       </c>
       <c r="T6">
-        <v>0.1785462795556962</v>
+        <v>0.1668973603190118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.6220282669866</v>
+        <v>59.7154715</v>
       </c>
       <c r="H7">
-        <v>59.6220282669866</v>
+        <v>119.430943</v>
       </c>
       <c r="I7">
-        <v>0.5115938063240072</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J7">
-        <v>0.5115938063240072</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N7">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O7">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P7">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q7">
-        <v>887.7343343865908</v>
+        <v>1345.095474197863</v>
       </c>
       <c r="R7">
-        <v>887.7343343865908</v>
+        <v>5380.38189679145</v>
       </c>
       <c r="S7">
-        <v>0.1017602028958337</v>
+        <v>0.1225230803504529</v>
       </c>
       <c r="T7">
-        <v>0.1017602028958337</v>
+        <v>0.09056286941786551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.04478014091158</v>
+        <v>1.12596</v>
       </c>
       <c r="H8">
-        <v>1.04478014091158</v>
+        <v>3.37788</v>
       </c>
       <c r="I8">
-        <v>0.008964858536297872</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J8">
-        <v>0.008964858536297872</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N8">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O8">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P8">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q8">
-        <v>32.6725538286785</v>
+        <v>35.2728053601</v>
       </c>
       <c r="R8">
-        <v>32.6725538286785</v>
+        <v>211.6368321606</v>
       </c>
       <c r="S8">
-        <v>0.00374522599605064</v>
+        <v>0.003212956141941264</v>
       </c>
       <c r="T8">
-        <v>0.00374522599605064</v>
+        <v>0.003562282225059321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.04478014091158</v>
+        <v>1.12596</v>
       </c>
       <c r="H9">
-        <v>1.04478014091158</v>
+        <v>3.37788</v>
       </c>
       <c r="I9">
-        <v>0.008964858536297872</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J9">
-        <v>0.008964858536297872</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N9">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O9">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P9">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q9">
-        <v>1.415944190565257</v>
+        <v>1.64950437696</v>
       </c>
       <c r="R9">
-        <v>1.415944190565257</v>
+        <v>14.84553939264</v>
       </c>
       <c r="S9">
-        <v>0.0001623084323089284</v>
+        <v>0.0001502513101809491</v>
       </c>
       <c r="T9">
-        <v>0.0001623084323089284</v>
+        <v>0.0002498808953050694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.04478014091158</v>
+        <v>1.12596</v>
       </c>
       <c r="H10">
-        <v>1.04478014091158</v>
+        <v>3.37788</v>
       </c>
       <c r="I10">
-        <v>0.008964858536297872</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J10">
-        <v>0.008964858536297872</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N10">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O10">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P10">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q10">
-        <v>0.7600598596768666</v>
+        <v>1.30114023468</v>
       </c>
       <c r="R10">
-        <v>0.7600598596768666</v>
+        <v>11.71026211212</v>
       </c>
       <c r="S10">
-        <v>8.712499059433147E-05</v>
+        <v>0.0001185192520374612</v>
       </c>
       <c r="T10">
-        <v>8.712499059433147E-05</v>
+        <v>0.000197107744181009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.04478014091158</v>
+        <v>1.12596</v>
       </c>
       <c r="H11">
-        <v>1.04478014091158</v>
+        <v>3.37788</v>
       </c>
       <c r="I11">
-        <v>0.008964858536297872</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J11">
-        <v>0.008964858536297872</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N11">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O11">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P11">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q11">
-        <v>0.5084126818930351</v>
+        <v>0.62443865</v>
       </c>
       <c r="R11">
-        <v>0.5084126818930351</v>
+        <v>5.61994785</v>
       </c>
       <c r="S11">
-        <v>5.827889680531396E-05</v>
+        <v>5.687934303213934E-05</v>
       </c>
       <c r="T11">
-        <v>5.827889680531396E-05</v>
+        <v>9.459525606877042E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.04478014091158</v>
+        <v>1.12596</v>
       </c>
       <c r="H12">
-        <v>1.04478014091158</v>
+        <v>3.37788</v>
       </c>
       <c r="I12">
-        <v>0.008964858536297872</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J12">
-        <v>0.008964858536297872</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N12">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O12">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P12">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q12">
-        <v>27.29442947540964</v>
+        <v>31.15998518336</v>
       </c>
       <c r="R12">
-        <v>27.29442947540964</v>
+        <v>280.43986665024</v>
       </c>
       <c r="S12">
-        <v>0.003128736350231294</v>
+        <v>0.002838324447278708</v>
       </c>
       <c r="T12">
-        <v>0.003128736350231294</v>
+        <v>0.004720378499183277</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.04478014091158</v>
+        <v>1.12596</v>
       </c>
       <c r="H13">
-        <v>1.04478014091158</v>
+        <v>3.37788</v>
       </c>
       <c r="I13">
-        <v>0.008964858536297872</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J13">
-        <v>0.008964858536297872</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N13">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O13">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P13">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q13">
-        <v>15.55611625319413</v>
+        <v>25.362333447</v>
       </c>
       <c r="R13">
-        <v>15.55611625319413</v>
+        <v>152.174000682</v>
       </c>
       <c r="S13">
-        <v>0.001783183870307362</v>
+        <v>0.00231022353313238</v>
       </c>
       <c r="T13">
-        <v>0.001783183870307362</v>
+        <v>0.002561400736400612</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>35.1982556998257</v>
+        <v>0.031281</v>
       </c>
       <c r="H14">
-        <v>35.1982556998257</v>
+        <v>0.093843</v>
       </c>
       <c r="I14">
-        <v>0.3020227612654082</v>
+        <v>0.0002413432672008298</v>
       </c>
       <c r="J14">
-        <v>0.3020227612654082</v>
+        <v>0.0003163117449884823</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N14">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O14">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P14">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q14">
-        <v>1100.726228414664</v>
+        <v>0.9799358986724999</v>
       </c>
       <c r="R14">
-        <v>1100.726228414664</v>
+        <v>5.879615392034999</v>
       </c>
       <c r="S14">
-        <v>0.1261752756399121</v>
+        <v>8.926114699995084E-05</v>
       </c>
       <c r="T14">
-        <v>0.1261752756399121</v>
+        <v>9.896599371388026E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>35.1982556998257</v>
+        <v>0.031281</v>
       </c>
       <c r="H15">
-        <v>35.1982556998257</v>
+        <v>0.093843</v>
       </c>
       <c r="I15">
-        <v>0.3020227612654082</v>
+        <v>0.0002413432672008298</v>
       </c>
       <c r="J15">
-        <v>0.3020227612654082</v>
+        <v>0.0003163117449884823</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N15">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O15">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P15">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q15">
-        <v>47.70263496080034</v>
+        <v>0.04582591425599999</v>
       </c>
       <c r="R15">
-        <v>47.70263496080034</v>
+        <v>0.412433228304</v>
       </c>
       <c r="S15">
-        <v>0.005468110924909895</v>
+        <v>4.174225757371725E-06</v>
       </c>
       <c r="T15">
-        <v>0.005468110924909895</v>
+        <v>6.942097664249062E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>35.1982556998257</v>
+        <v>0.031281</v>
       </c>
       <c r="H16">
-        <v>35.1982556998257</v>
+        <v>0.093843</v>
       </c>
       <c r="I16">
-        <v>0.3020227612654082</v>
+        <v>0.0002413432672008298</v>
       </c>
       <c r="J16">
-        <v>0.3020227612654082</v>
+        <v>0.0003163117449884823</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N16">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O16">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P16">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q16">
-        <v>25.60613495652583</v>
+        <v>0.03614779182299999</v>
       </c>
       <c r="R16">
-        <v>25.60613495652583</v>
+        <v>0.325330126407</v>
       </c>
       <c r="S16">
-        <v>0.002935208640268096</v>
+        <v>3.292657574855077E-06</v>
       </c>
       <c r="T16">
-        <v>0.002935208640268096</v>
+        <v>5.47597369864484E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>35.1982556998257</v>
+        <v>0.031281</v>
       </c>
       <c r="H17">
-        <v>35.1982556998257</v>
+        <v>0.093843</v>
       </c>
       <c r="I17">
-        <v>0.3020227612654082</v>
+        <v>0.0002413432672008298</v>
       </c>
       <c r="J17">
-        <v>0.3020227612654082</v>
+        <v>0.0003163117449884823</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N17">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O17">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P17">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q17">
-        <v>17.12823480994905</v>
+        <v>0.01734792125</v>
       </c>
       <c r="R17">
-        <v>17.12823480994905</v>
+        <v>0.15613129125</v>
       </c>
       <c r="S17">
-        <v>0.001963394432313199</v>
+        <v>1.580200654897465E-06</v>
       </c>
       <c r="T17">
-        <v>0.001963394432313199</v>
+        <v>2.62801005816122E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>35.1982556998257</v>
+        <v>0.031281</v>
       </c>
       <c r="H18">
-        <v>35.1982556998257</v>
+        <v>0.093843</v>
       </c>
       <c r="I18">
-        <v>0.3020227612654082</v>
+        <v>0.0002413432672008298</v>
       </c>
       <c r="J18">
-        <v>0.3020227612654082</v>
+        <v>0.0003163117449884823</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N18">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O18">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P18">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q18">
-        <v>919.5392123534187</v>
+        <v>0.8656750652959999</v>
       </c>
       <c r="R18">
-        <v>919.5392123534187</v>
+        <v>7.791075587663999</v>
       </c>
       <c r="S18">
-        <v>0.105405967973984</v>
+        <v>7.885326924164734E-05</v>
       </c>
       <c r="T18">
-        <v>0.105405967973984</v>
+        <v>0.0001311397916737292</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>35.1982556998257</v>
+        <v>0.031281</v>
       </c>
       <c r="H19">
-        <v>35.1982556998257</v>
+        <v>0.093843</v>
       </c>
       <c r="I19">
-        <v>0.3020227612654082</v>
+        <v>0.0002413432672008298</v>
       </c>
       <c r="J19">
-        <v>0.3020227612654082</v>
+        <v>0.0003163117449884823</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N19">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O19">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P19">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q19">
-        <v>524.0797906996977</v>
+        <v>0.704606871075</v>
       </c>
       <c r="R19">
-        <v>524.0797906996977</v>
+        <v>4.22764122645</v>
       </c>
       <c r="S19">
-        <v>0.06007480365402081</v>
+        <v>6.418176697210733E-05</v>
       </c>
       <c r="T19">
-        <v>0.06007480365402081</v>
+        <v>7.115987817981771E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>20.6766678874173</v>
+        <v>0.02706633333333333</v>
       </c>
       <c r="H20">
-        <v>20.6766678874173</v>
+        <v>0.08119899999999999</v>
       </c>
       <c r="I20">
-        <v>0.1774185738742869</v>
+        <v>0.0002088257190567243</v>
       </c>
       <c r="J20">
-        <v>0.1774185738742869</v>
+        <v>0.0002736932683452124</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N20">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O20">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P20">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q20">
-        <v>646.604503757047</v>
+        <v>0.8479035733758332</v>
       </c>
       <c r="R20">
-        <v>646.604503757047</v>
+        <v>5.087421440255</v>
       </c>
       <c r="S20">
-        <v>0.07411970332446663</v>
+        <v>7.723448605915209E-05</v>
       </c>
       <c r="T20">
-        <v>0.07411970332446663</v>
+        <v>8.563174369503705E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>20.6766678874173</v>
+        <v>0.02706633333333333</v>
       </c>
       <c r="H21">
-        <v>20.6766678874173</v>
+        <v>0.08119899999999999</v>
       </c>
       <c r="I21">
-        <v>0.1774185738742869</v>
+        <v>0.0002088257190567243</v>
       </c>
       <c r="J21">
-        <v>0.1774185738742869</v>
+        <v>0.0002736932683452124</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N21">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O21">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P21">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q21">
-        <v>28.02217100900413</v>
+        <v>0.03965152874133333</v>
       </c>
       <c r="R21">
-        <v>28.02217100900413</v>
+        <v>0.356863758672</v>
       </c>
       <c r="S21">
-        <v>0.003212156719643355</v>
+        <v>3.611808630082444E-06</v>
       </c>
       <c r="T21">
-        <v>0.003212156719643355</v>
+        <v>6.006749445769632E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>20.6766678874173</v>
+        <v>0.02706633333333333</v>
       </c>
       <c r="H22">
-        <v>20.6766678874173</v>
+        <v>0.08119899999999999</v>
       </c>
       <c r="I22">
-        <v>0.1774185738742869</v>
+        <v>0.0002088257190567243</v>
       </c>
       <c r="J22">
-        <v>0.1774185738742869</v>
+        <v>0.0002736932683452124</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N22">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O22">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P22">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q22">
-        <v>15.04192573892498</v>
+        <v>0.03127739467233333</v>
       </c>
       <c r="R22">
-        <v>15.04192573892498</v>
+        <v>0.281496552051</v>
       </c>
       <c r="S22">
-        <v>0.001724242665678506</v>
+        <v>2.849019132174562E-06</v>
       </c>
       <c r="T22">
-        <v>0.001724242665678506</v>
+        <v>4.738164683101162E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>20.6766678874173</v>
+        <v>0.02706633333333333</v>
       </c>
       <c r="H23">
-        <v>20.6766678874173</v>
+        <v>0.08119899999999999</v>
       </c>
       <c r="I23">
-        <v>0.1774185738742869</v>
+        <v>0.0002088257190567243</v>
       </c>
       <c r="J23">
-        <v>0.1774185738742869</v>
+        <v>0.0002736932683452124</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N23">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O23">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P23">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q23">
-        <v>10.06171515098035</v>
+        <v>0.01501053736111111</v>
       </c>
       <c r="R23">
-        <v>10.06171515098035</v>
+        <v>0.13509483625</v>
       </c>
       <c r="S23">
-        <v>0.001153365523426926</v>
+        <v>1.367291252166057E-06</v>
       </c>
       <c r="T23">
-        <v>0.001153365523426926</v>
+        <v>2.273923347640558E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>20.6766678874173</v>
+        <v>0.02706633333333333</v>
       </c>
       <c r="H24">
-        <v>20.6766678874173</v>
+        <v>0.08119899999999999</v>
       </c>
       <c r="I24">
-        <v>0.1774185738742869</v>
+        <v>0.0002088257190567243</v>
       </c>
       <c r="J24">
-        <v>0.1774185738742869</v>
+        <v>0.0002736932683452124</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N24">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O24">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P24">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q24">
-        <v>540.1690090961831</v>
+        <v>0.7490377505724444</v>
       </c>
       <c r="R24">
-        <v>540.1690090961831</v>
+        <v>6.741339755152</v>
       </c>
       <c r="S24">
-        <v>0.06191909655229318</v>
+        <v>6.82289207415846E-05</v>
       </c>
       <c r="T24">
-        <v>0.06191909655229318</v>
+        <v>0.0001134705832519755</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.02706633333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.08119899999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.0002088257190567243</v>
+      </c>
+      <c r="J25">
+        <v>0.0002736932683452124</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>22.525075</v>
+      </c>
+      <c r="N25">
+        <v>45.05015</v>
+      </c>
+      <c r="O25">
+        <v>0.2659356016702117</v>
+      </c>
+      <c r="P25">
+        <v>0.2249675496001858</v>
+      </c>
+      <c r="Q25">
+        <v>0.6096711883083333</v>
+      </c>
+      <c r="R25">
+        <v>3.65802712985</v>
+      </c>
+      <c r="S25">
+        <v>5.553419324156457E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.157210392168854E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H26">
+        <v>108.811174</v>
+      </c>
+      <c r="I26">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J26">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>31.3268725</v>
+      </c>
+      <c r="N26">
+        <v>62.653745</v>
+      </c>
+      <c r="O26">
+        <v>0.3698514072309863</v>
+      </c>
+      <c r="P26">
+        <v>0.3128748624793679</v>
+      </c>
+      <c r="Q26">
+        <v>1136.237924824438</v>
+      </c>
+      <c r="R26">
+        <v>6817.42754894663</v>
+      </c>
+      <c r="S26">
+        <v>0.1034985049247278</v>
+      </c>
+      <c r="T26">
+        <v>0.1147512969756288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H27">
+        <v>108.811174</v>
+      </c>
+      <c r="I27">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J27">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.464976</v>
+      </c>
+      <c r="N27">
+        <v>4.394928</v>
+      </c>
+      <c r="O27">
+        <v>0.01729580363183785</v>
+      </c>
+      <c r="P27">
+        <v>0.02194701200393884</v>
+      </c>
+      <c r="Q27">
+        <v>53.13525281394133</v>
+      </c>
+      <c r="R27">
+        <v>478.217275325472</v>
+      </c>
+      <c r="S27">
+        <v>0.004840024351317164</v>
+      </c>
+      <c r="T27">
+        <v>0.008049378183451064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H28">
+        <v>108.811174</v>
+      </c>
+      <c r="I28">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J28">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.155583</v>
+      </c>
+      <c r="N28">
+        <v>3.466749</v>
+      </c>
+      <c r="O28">
+        <v>0.01364304715455412</v>
+      </c>
+      <c r="P28">
+        <v>0.01731195184941436</v>
+      </c>
+      <c r="Q28">
+        <v>41.91344762814733</v>
+      </c>
+      <c r="R28">
+        <v>377.221028653326</v>
+      </c>
+      <c r="S28">
+        <v>0.003817844019265942</v>
+      </c>
+      <c r="T28">
+        <v>0.006349404078542536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H29">
+        <v>108.811174</v>
+      </c>
+      <c r="I29">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J29">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.5545833333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.66375</v>
+      </c>
+      <c r="O29">
+        <v>0.006547523256915751</v>
+      </c>
+      <c r="P29">
+        <v>0.008308291107739021</v>
+      </c>
+      <c r="Q29">
+        <v>20.11495452694444</v>
+      </c>
+      <c r="R29">
+        <v>181.0345907425</v>
+      </c>
+      <c r="S29">
+        <v>0.001832246288108458</v>
+      </c>
+      <c r="T29">
+        <v>0.003047183697370402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H30">
+        <v>108.811174</v>
+      </c>
+      <c r="I30">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J30">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>27.67414933333333</v>
+      </c>
+      <c r="N30">
+        <v>83.022448</v>
+      </c>
+      <c r="O30">
+        <v>0.3267266170554943</v>
+      </c>
+      <c r="P30">
+        <v>0.4145903329593541</v>
+      </c>
+      <c r="Q30">
+        <v>1003.752226137106</v>
+      </c>
+      <c r="R30">
+        <v>9033.770035233951</v>
+      </c>
+      <c r="S30">
+        <v>0.09143054676344253</v>
+      </c>
+      <c r="T30">
+        <v>0.152056889593618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H31">
+        <v>108.811174</v>
+      </c>
+      <c r="I31">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J31">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>22.525075</v>
+      </c>
+      <c r="N31">
+        <v>45.05015</v>
+      </c>
+      <c r="O31">
+        <v>0.2659356016702117</v>
+      </c>
+      <c r="P31">
+        <v>0.2249675496001858</v>
+      </c>
+      <c r="Q31">
+        <v>816.9932850626833</v>
+      </c>
+      <c r="R31">
+        <v>4901.9597103761</v>
+      </c>
+      <c r="S31">
+        <v>0.07441890619043962</v>
+      </c>
+      <c r="T31">
+        <v>0.08251004216023515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>32.441898</v>
+      </c>
+      <c r="H32">
+        <v>64.883796</v>
+      </c>
+      <c r="I32">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J32">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>31.3268725</v>
+      </c>
+      <c r="N32">
+        <v>62.653745</v>
+      </c>
+      <c r="O32">
+        <v>0.3698514072309863</v>
+      </c>
+      <c r="P32">
+        <v>0.3128748624793679</v>
+      </c>
+      <c r="Q32">
+        <v>1016.303202304005</v>
+      </c>
+      <c r="R32">
+        <v>4065.21280921602</v>
+      </c>
+      <c r="S32">
+        <v>0.09257379963349674</v>
+      </c>
+      <c r="T32">
+        <v>0.06842587456782807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>32.441898</v>
+      </c>
+      <c r="H33">
+        <v>64.883796</v>
+      </c>
+      <c r="I33">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J33">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.464976</v>
+      </c>
+      <c r="N33">
+        <v>4.394928</v>
+      </c>
+      <c r="O33">
+        <v>0.01729580363183785</v>
+      </c>
+      <c r="P33">
+        <v>0.02194701200393884</v>
+      </c>
+      <c r="Q33">
+        <v>47.52660196444801</v>
+      </c>
+      <c r="R33">
+        <v>285.159611786688</v>
+      </c>
+      <c r="S33">
+        <v>0.004329139293808583</v>
+      </c>
+      <c r="T33">
+        <v>0.004799821496107463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>32.441898</v>
+      </c>
+      <c r="H34">
+        <v>64.883796</v>
+      </c>
+      <c r="I34">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J34">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.155583</v>
+      </c>
+      <c r="N34">
+        <v>3.466749</v>
+      </c>
+      <c r="O34">
+        <v>0.01364304715455412</v>
+      </c>
+      <c r="P34">
+        <v>0.01731195184941436</v>
+      </c>
+      <c r="Q34">
+        <v>37.48930581653401</v>
+      </c>
+      <c r="R34">
+        <v>224.935834899204</v>
+      </c>
+      <c r="S34">
+        <v>0.003414854422568837</v>
+      </c>
+      <c r="T34">
+        <v>0.00378613173453787</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>20.6766678874173</v>
-      </c>
-      <c r="H25">
-        <v>20.6766678874173</v>
-      </c>
-      <c r="I25">
-        <v>0.1774185738742869</v>
-      </c>
-      <c r="J25">
-        <v>0.1774185738742869</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>14.8893682450944</v>
-      </c>
-      <c r="N25">
-        <v>14.8893682450944</v>
-      </c>
-      <c r="O25">
-        <v>0.1989081995089401</v>
-      </c>
-      <c r="P25">
-        <v>0.1989081995089401</v>
-      </c>
-      <c r="Q25">
-        <v>307.8625222572742</v>
-      </c>
-      <c r="R25">
-        <v>307.8625222572742</v>
-      </c>
-      <c r="S25">
-        <v>0.0352900090887783</v>
-      </c>
-      <c r="T25">
-        <v>0.0352900090887783</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>32.441898</v>
+      </c>
+      <c r="H35">
+        <v>64.883796</v>
+      </c>
+      <c r="I35">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J35">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.5545833333333333</v>
+      </c>
+      <c r="N35">
+        <v>1.66375</v>
+      </c>
+      <c r="O35">
+        <v>0.006547523256915751</v>
+      </c>
+      <c r="P35">
+        <v>0.008308291107739021</v>
+      </c>
+      <c r="Q35">
+        <v>17.9917359325</v>
+      </c>
+      <c r="R35">
+        <v>107.950415595</v>
+      </c>
+      <c r="S35">
+        <v>0.001638844936725705</v>
+      </c>
+      <c r="T35">
+        <v>0.00181702703983974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>32.441898</v>
+      </c>
+      <c r="H36">
+        <v>64.883796</v>
+      </c>
+      <c r="I36">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J36">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>27.67414933333333</v>
+      </c>
+      <c r="N36">
+        <v>83.022448</v>
+      </c>
+      <c r="O36">
+        <v>0.3267266170554943</v>
+      </c>
+      <c r="P36">
+        <v>0.4145903329593541</v>
+      </c>
+      <c r="Q36">
+        <v>897.801929908768</v>
+      </c>
+      <c r="R36">
+        <v>5386.811579452608</v>
+      </c>
+      <c r="S36">
+        <v>0.08177966553831595</v>
+      </c>
+      <c r="T36">
+        <v>0.09067109417261535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>32.441898</v>
+      </c>
+      <c r="H37">
+        <v>64.883796</v>
+      </c>
+      <c r="I37">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J37">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>22.525075</v>
+      </c>
+      <c r="N37">
+        <v>45.05015</v>
+      </c>
+      <c r="O37">
+        <v>0.2659356016702117</v>
+      </c>
+      <c r="P37">
+        <v>0.2249675496001858</v>
+      </c>
+      <c r="Q37">
+        <v>730.7561855923501</v>
+      </c>
+      <c r="R37">
+        <v>2923.0247423694</v>
+      </c>
+      <c r="S37">
+        <v>0.06656367563597312</v>
+      </c>
+      <c r="T37">
+        <v>0.04920050530358305</v>
       </c>
     </row>
   </sheetData>
